--- a/DDAf_2022_Tableau_annexe_Tab08.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab08.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -115,7 +115,7 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambie*</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -157,13 +157,13 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Congo*</t>
+    <t>République du Congo*</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
@@ -181,7 +181,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>Afrique Centrale</t>
@@ -250,7 +250,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
@@ -262,7 +262,7 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>UR of Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
@@ -364,7 +364,7 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>Libéria</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>MLI</t>
@@ -382,7 +382,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigéria*</t>
+    <t>Nigeria*</t>
   </si>
   <si>
     <t>SEN</t>
@@ -400,7 +400,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Afrique de l'Ouest</t>
@@ -1315,7 +1315,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="74" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>

--- a/DDAf_2022_Tableau_annexe_Tab08.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab08.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="172">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="171">
   <si>
     <t>Tableau 8 : Projections sur les profils d'éducation des jeunes</t>
   </si>
@@ -1300,11 +1297,9 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
@@ -1315,47 +1310,47 @@
       <c r="J1" s="3"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>14</v>
       </c>
       <c r="C3" s="12">
         <v>37.312329390354897</v>
@@ -1387,10 +1382,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="15">
         <v>3.06304905543031</v>
@@ -1422,10 +1417,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>18</v>
       </c>
       <c r="C5" s="19">
         <v>9.5961887477314001</v>
@@ -1457,10 +1452,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>20</v>
       </c>
       <c r="C6" s="19">
         <v>20.354861603974499</v>
@@ -1492,10 +1487,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="C7" s="19">
         <v>29.117950626892998</v>
@@ -1527,10 +1522,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>24</v>
       </c>
       <c r="C8" s="19">
         <v>54.902091900988601</v>
@@ -1562,10 +1557,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>26</v>
       </c>
       <c r="C9" s="19">
         <v>12.496812037745499</v>
@@ -1597,10 +1592,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>28</v>
       </c>
       <c r="C10" s="19">
         <v>3.5795820690593199</v>
@@ -1632,10 +1627,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>30</v>
       </c>
       <c r="C11" s="15">
         <v>20.8327140309156</v>
@@ -1667,10 +1662,10 @@
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>32</v>
       </c>
       <c r="C12" s="22">
         <v>6.2656791303309101</v>
@@ -1702,10 +1697,10 @@
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>34</v>
       </c>
       <c r="C13" s="26">
         <v>23.4575603538301</v>
@@ -1737,10 +1732,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>36</v>
       </c>
       <c r="C14" s="19">
         <v>42.463605823068299</v>
@@ -1772,10 +1767,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="C15" s="19">
         <v>12.594615576565801</v>
@@ -1807,10 +1802,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>40</v>
       </c>
       <c r="C16" s="19">
         <v>22.0127492201275</v>
@@ -1842,10 +1837,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>42</v>
       </c>
       <c r="C17" s="12">
         <v>55.908480305065702</v>
@@ -1877,10 +1872,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>44</v>
       </c>
       <c r="C18" s="12">
         <v>8.2381563830506206</v>
@@ -1912,10 +1907,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="C19" s="15">
         <v>21.7455057084495</v>
@@ -1947,10 +1942,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>48</v>
       </c>
       <c r="C20" s="12">
         <v>7.9336349924585203</v>
@@ -1982,10 +1977,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>49</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>50</v>
       </c>
       <c r="C21" s="12">
         <v>7.7805665112943698</v>
@@ -2017,10 +2012,10 @@
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>51</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>52</v>
       </c>
       <c r="C22" s="19">
         <v>23.414634146341498</v>
@@ -2052,10 +2047,10 @@
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="26">
         <v>24.6794328245713</v>
@@ -2087,10 +2082,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>55</v>
       </c>
       <c r="C24" s="19">
         <v>16.397515527950301</v>
@@ -2122,10 +2117,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>57</v>
       </c>
       <c r="C25" s="19">
         <v>47.552208147894603</v>
@@ -2157,10 +2152,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>59</v>
       </c>
       <c r="C26" s="19">
         <v>48.210822018594101</v>
@@ -2192,10 +2187,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="C27" s="19">
         <v>54.351698838531199</v>
@@ -2227,10 +2222,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>63</v>
       </c>
       <c r="C28" s="19">
         <v>11.6301857854013</v>
@@ -2262,10 +2257,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="C29" s="19">
         <v>44.589757535130197</v>
@@ -2297,10 +2292,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="C30" s="19">
         <v>4.0687478077867398</v>
@@ -2332,10 +2327,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>69</v>
       </c>
       <c r="C31" s="19">
         <v>46.086443676805096</v>
@@ -2367,10 +2362,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="C32" s="19">
         <v>0.56818181818182001</v>
@@ -2402,10 +2397,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="C33" s="19">
         <v>54.6740054593458</v>
@@ -2437,10 +2432,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="C34" s="15">
         <v>53.072413967355601</v>
@@ -2472,10 +2467,10 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="C35" s="19">
         <v>35.0971411806891</v>
@@ -2507,10 +2502,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="C36" s="19">
         <v>12.502701723845901</v>
@@ -2542,10 +2537,10 @@
     </row>
     <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="C37" s="19">
         <v>30.220946572188801</v>
@@ -2577,10 +2572,10 @@
     </row>
     <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="26">
         <v>36.226541452413599</v>
@@ -2612,10 +2607,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>83</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>84</v>
       </c>
       <c r="C39" s="12">
         <v>3.3895970416521002</v>
@@ -2647,10 +2642,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="C40" s="19">
         <v>7.8148800931501201</v>
@@ -2682,10 +2677,10 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>87</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>88</v>
       </c>
       <c r="C41" s="12">
         <v>9.3641975308641996</v>
@@ -2717,10 +2712,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>89</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>90</v>
       </c>
       <c r="C42" s="12">
         <v>41.776878792593699</v>
@@ -2752,10 +2747,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="C43" s="19">
         <v>18.669168623661498</v>
@@ -2787,10 +2782,10 @@
     </row>
     <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>94</v>
       </c>
       <c r="C44" s="19">
         <v>1.5362686094393401</v>
@@ -2822,10 +2817,10 @@
     </row>
     <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="26">
         <v>9.5579594727942006</v>
@@ -2857,10 +2852,10 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>97</v>
       </c>
       <c r="C46" s="19">
         <v>40.759621977759899</v>
@@ -2892,10 +2887,10 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="C47" s="19">
         <v>61.569679460723599</v>
@@ -2927,10 +2922,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>101</v>
       </c>
       <c r="C48" s="19">
         <v>25.3333333333333</v>
@@ -2962,10 +2957,10 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="C49" s="19">
         <v>41.841677943166403</v>
@@ -2997,10 +2992,10 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="C50" s="19">
         <v>35.727758566488497</v>
@@ -3032,10 +3027,10 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>107</v>
       </c>
       <c r="C51" s="15">
         <v>18.980082702401699</v>
@@ -3067,10 +3062,10 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="C52" s="19">
         <v>49.212970250275497</v>
@@ -3102,10 +3097,10 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="C53" s="19">
         <v>43.629697525206197</v>
@@ -3137,10 +3132,10 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>113</v>
       </c>
       <c r="C54" s="19">
         <v>37.912710783619097</v>
@@ -3172,10 +3167,10 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="C55" s="19">
         <v>67.571556106181802</v>
@@ -3207,10 +3202,10 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>117</v>
       </c>
       <c r="C56" s="19">
         <v>67.065712426805504</v>
@@ -3242,10 +3237,10 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="29" t="s">
         <v>118</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>119</v>
       </c>
       <c r="C57" s="12">
         <v>23.676187855505798</v>
@@ -3277,10 +3272,10 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="C58" s="19">
         <v>41.814549550506896</v>
@@ -3312,10 +3307,10 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="C59" s="19">
         <v>47.982490356694001</v>
@@ -3347,10 +3342,10 @@
     </row>
     <row r="60" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="C60" s="15">
         <v>32.537809249060203</v>
@@ -3383,7 +3378,7 @@
     <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C61" s="26">
         <v>34.608695006524698</v>
@@ -3416,7 +3411,7 @@
     <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C62" s="32">
         <v>29.024767621868701</v>
@@ -3449,7 +3444,7 @@
     <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" s="32">
         <v>8.5818442249287195</v>
@@ -3482,7 +3477,7 @@
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C64" s="36">
         <v>6.3666092301127799</v>
@@ -3515,7 +3510,7 @@
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C65" s="39">
         <v>10.980007102211699</v>
@@ -3548,7 +3543,7 @@
     <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="42">
         <v>12.7654192485123</v>
@@ -3581,7 +3576,7 @@
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" s="39">
         <v>29.519017064862901</v>
@@ -3614,7 +3609,7 @@
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C68" s="39">
         <v>30.284459350041899</v>
@@ -3647,7 +3642,7 @@
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C69" s="39">
         <v>23.0974842349111</v>
@@ -3680,7 +3675,7 @@
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C70" s="39">
         <v>28.096634293460699</v>
@@ -3713,7 +3708,7 @@
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C71" s="39">
         <v>34.608695006524698</v>
@@ -3746,7 +3741,7 @@
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C72" s="39">
         <v>39.974052801142101</v>
@@ -3779,7 +3774,7 @@
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C73" s="39">
         <v>22.7811761173866</v>
@@ -3812,7 +3807,7 @@
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74" s="39">
         <v>11.3970650106865</v>
@@ -3845,7 +3840,7 @@
     <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C75" s="42">
         <v>45.193500174897402</v>
@@ -3878,7 +3873,7 @@
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" s="39">
         <v>5.2778243328256798</v>
@@ -3911,7 +3906,7 @@
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C77" s="39">
         <v>4.8756757222173599</v>
@@ -3944,7 +3939,7 @@
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C78" s="39">
         <v>0.70657192179534001</v>
@@ -3977,7 +3972,7 @@
     <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C79" s="42">
         <v>1.49626842350399</v>
@@ -4010,7 +4005,7 @@
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C80" s="39">
         <v>24.1602155529723</v>
@@ -4043,7 +4038,7 @@
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C81" s="39">
         <v>8.5967093078305599</v>
@@ -4076,7 +4071,7 @@
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" s="39">
         <v>30.4618785282277</v>
@@ -4109,7 +4104,7 @@
     <row r="83" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C83" s="42">
         <v>8.5806927757025093</v>
@@ -4142,7 +4137,7 @@
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C84" s="39">
         <v>44.167272140146899</v>
@@ -4175,7 +4170,7 @@
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C85" s="39">
         <v>34.083203405350602</v>
@@ -4208,7 +4203,7 @@
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C86" s="39">
         <v>18.939668197763702</v>
@@ -4241,7 +4236,7 @@
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" s="39">
         <v>13.8744774731391</v>
@@ -4274,7 +4269,7 @@
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C88" s="39">
         <v>4.5946262098148196</v>
@@ -4307,7 +4302,7 @@
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C89" s="39">
         <v>2.9565442291508202</v>
@@ -4340,7 +4335,7 @@
     <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C90" s="42">
         <v>0.85000700781723004</v>
@@ -4373,7 +4368,7 @@
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C91" s="39">
         <v>40.266375445038101</v>
@@ -4406,7 +4401,7 @@
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C92" s="39">
         <v>25.695454750161101</v>
@@ -4439,7 +4434,7 @@
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C93" s="39">
         <v>26.249810059261499</v>
@@ -4472,7 +4467,7 @@
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C94" s="39">
         <v>11.664030689504299</v>
@@ -4505,7 +4500,7 @@
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C95" s="39">
         <v>45.433425403154097</v>
@@ -4538,7 +4533,7 @@
     <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C96" s="42">
         <v>14.4430386513891</v>
@@ -4571,7 +4566,7 @@
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C97" s="39">
         <v>33.749223437011103</v>
@@ -4604,7 +4599,7 @@
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C98" s="39">
         <v>23.243366968118</v>
@@ -4637,7 +4632,7 @@
     <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C99" s="42">
         <v>33.7200154631172</v>
@@ -4682,7 +4677,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -4697,7 +4692,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -4712,7 +4707,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -4727,7 +4722,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -4742,7 +4737,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -4781,7 +4776,7 @@
     </row>
     <row r="108" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -4807,7 +4802,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -4821,7 +4816,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -4847,7 +4842,7 @@
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -4861,7 +4856,7 @@
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
@@ -4887,7 +4882,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B108" r:id="rId1"/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>

--- a/DDAf_2022_Tableau_annexe_Tab08.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab08.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="172">
   <si>
     <t>Tableau 8 : Projections sur les profils d'éducation des jeunes</t>
   </si>
@@ -490,19 +490,22 @@
     <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Afrique, petits Etats insulaires en développement</t>
-  </si>
-  <si>
-    <t>RDM, petits Etats insulaires en développement</t>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
     <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Afrique, Etats fragiles</t>
-  </si>
-  <si>
-    <t>RDM, Etats fragiles</t>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
     <t>États extrêmement fragiles</t>
@@ -517,7 +520,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Source : Wittgenstein Centre Human Capital Data Explorer, 2018.</t>
@@ -4404,31 +4407,31 @@
         <v>154</v>
       </c>
       <c r="C92" s="39">
-        <v>25.695454750161101</v>
+        <v>25.7021478385427</v>
       </c>
       <c r="D92" s="39">
-        <v>44.266500100840197</v>
+        <v>44.256427741428602</v>
       </c>
       <c r="E92" s="40">
-        <v>30.038045148998801</v>
+        <v>30.041424420028701</v>
       </c>
       <c r="F92" s="39">
-        <v>15.6841456007609</v>
+        <v>15.6949476517759</v>
       </c>
       <c r="G92" s="39">
-        <v>36.986567100932703</v>
+        <v>36.972983264402799</v>
       </c>
       <c r="H92" s="40">
-        <v>47.329287298306397</v>
+        <v>47.332069083821303</v>
       </c>
       <c r="I92" s="39">
-        <v>0.15256882606534999</v>
+        <v>0.15270641160569001</v>
       </c>
       <c r="J92" s="39">
-        <v>13.868403202295999</v>
+        <v>13.8646071937101</v>
       </c>
       <c r="K92" s="40">
-        <v>85.9790279716387</v>
+        <v>85.982686394684194</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
@@ -4533,7 +4536,7 @@
     <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C96" s="42">
         <v>14.4430386513891</v>
@@ -4566,7 +4569,7 @@
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C97" s="39">
         <v>33.749223437011103</v>
@@ -4599,7 +4602,7 @@
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C98" s="39">
         <v>23.243366968118</v>
@@ -4632,7 +4635,7 @@
     <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C99" s="42">
         <v>33.7200154631172</v>
@@ -4677,7 +4680,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -4692,7 +4695,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -4707,7 +4710,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -4722,7 +4725,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -4737,7 +4740,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -4776,7 +4779,7 @@
     </row>
     <row r="108" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -4802,7 +4805,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -4842,7 +4845,7 @@
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -4856,7 +4859,7 @@
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>

--- a/DDAf_2022_Tableau_annexe_Tab08.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab08.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab08.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab08.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab08.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab08.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab08.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab08.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>

--- a/DDAf_2022_Tableau_annexe_Tab08.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab08.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
     <t>Source : Wittgenstein Centre Human Capital Data Explorer, 2018.</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -4885,7 +4885,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
